--- a/results.xlsx
+++ b/results.xlsx
@@ -497,13 +497,13 @@
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>7148.09365563483</v>
+        <v>7686.98647148185</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1285209540172247</v>
+        <v>0.1272391095129226</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0004921681915031754</v>
+        <v>-0.001951379889386189</v>
       </c>
     </row>
     <row r="3">
@@ -528,13 +528,13 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>2360.301579664033</v>
+        <v>2892.711089473733</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1540865856956881</v>
+        <v>0.1505888914225141</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0003016804744582544</v>
+        <v>-0.001868099495394671</v>
       </c>
     </row>
     <row r="4">
@@ -559,13 +559,13 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>7148.09365563483</v>
+        <v>7686.98647148185</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1285209540172247</v>
+        <v>0.1272391095129226</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0004921681915031754</v>
+        <v>-0.001951379889386189</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>2380.300022406163</v>
+        <v>2989.973945685208</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1540865856956881</v>
+        <v>0.1491994985423215</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0003016804744582544</v>
+        <v>-0.001868099495394671</v>
       </c>
     </row>
     <row r="6">
@@ -621,13 +621,13 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>331.4975320303565</v>
+        <v>877.5363924469245</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1562944557749324</v>
+        <v>0.1535363178137122</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.594941425276839e-05</v>
+        <v>-0.001821774587027102</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>2380.300022406163</v>
+        <v>2442.290486029133</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1540865856956881</v>
+        <v>0.1491994985423215</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0003016804744582544</v>
+        <v>-0.001868099495394671</v>
       </c>
     </row>
     <row r="8">
@@ -683,13 +683,13 @@
         <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>2380.300022406163</v>
+        <v>2989.973945685208</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1540865856956881</v>
+        <v>0.1491994985423215</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0003016804744582544</v>
+        <v>-0.001868099495394671</v>
       </c>
     </row>
     <row r="9">
@@ -714,13 +714,13 @@
         <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>7148.09365563483</v>
+        <v>7241.597783217822</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1285209540172247</v>
+        <v>0.1272391095129226</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0004921681915031754</v>
+        <v>-0.001951379889386189</v>
       </c>
     </row>
     <row r="10">
@@ -745,13 +745,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>331.4975320303565</v>
+        <v>811.4637922246416</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1562944557749324</v>
+        <v>0.154375289981823</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.000106487603639555</v>
+        <v>-0.001821774587027102</v>
       </c>
     </row>
     <row r="11">
@@ -776,13 +776,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>331.4975320303565</v>
+        <v>877.5363924469245</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1562944557749324</v>
+        <v>0.1535363178137122</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.594941425276839e-05</v>
+        <v>-0.001821774587027102</v>
       </c>
     </row>
     <row r="12">
@@ -807,13 +807,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>331.4975320303565</v>
+        <v>877.5363924469245</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1562944557749324</v>
+        <v>0.1535363178137122</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.594941425276839e-05</v>
+        <v>-0.001821774587027102</v>
       </c>
     </row>
     <row r="13">
@@ -838,13 +838,13 @@
         <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>7148.09365563483</v>
+        <v>7241.597783217822</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1285209540172247</v>
+        <v>0.1272391095129226</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0004921681915031754</v>
+        <v>-0.001951379889386189</v>
       </c>
     </row>
     <row r="14">
@@ -869,13 +869,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>331.4975320303565</v>
+        <v>811.4637922246416</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1562944557749324</v>
+        <v>0.154375289981823</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.000106487603639555</v>
+        <v>-0.001821774587027102</v>
       </c>
     </row>
     <row r="15">
@@ -900,13 +900,13 @@
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>1530.819288025297</v>
+        <v>2177.540156600985</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1624116574739036</v>
+        <v>0.1600002380275359</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.000106487603639555</v>
+        <v>0.001435650116482756</v>
       </c>
     </row>
     <row r="16">
@@ -931,13 +931,13 @@
         <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>2369.110075189936</v>
+        <v>2314.66617168027</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2633795398220772</v>
+        <v>0.2590810141005796</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.007577255944341126</v>
+        <v>-0.009077330705672772</v>
       </c>
     </row>
     <row r="17">
@@ -962,13 +962,13 @@
         <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>8850.654812285984</v>
+        <v>7983.580255963932</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1349083131679534</v>
+        <v>0.130234022206696</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0006617244104151019</v>
+        <v>-0.001976342362450899</v>
       </c>
     </row>
     <row r="18">
@@ -993,13 +993,13 @@
         <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>2380.300022406163</v>
+        <v>2989.973945685208</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1540865856956881</v>
+        <v>0.1491994985423215</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0003016804744582544</v>
+        <v>-0.001868099495394671</v>
       </c>
     </row>
     <row r="19">
@@ -1024,13 +1024,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>331.4975320303565</v>
+        <v>877.5363924469245</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1562944557749324</v>
+        <v>0.1535363178137122</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.594941425276839e-05</v>
+        <v>-0.001821774587027102</v>
       </c>
     </row>
   </sheetData>
